--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Table Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Villains_Abilities</t>
+  </si>
+  <si>
+    <t>Overall Damage</t>
   </si>
 </sst>
 </file>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,28 +529,28 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -569,34 +569,34 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -615,34 +615,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,40 +651,40 @@
         <v>6</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -692,68 +692,48 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
